--- a/APH.xlsx
+++ b/APH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B5FFD3-46FD-40C0-A324-3238BA96469D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EC3F91-E0B3-4E78-AEA2-61003A611455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="885" windowWidth="24240" windowHeight="14445" xr2:uid="{5FA0205A-B168-4B72-B032-412A2FEFE68C}"/>
+    <workbookView xWindow="9750" yWindow="615" windowWidth="18690" windowHeight="14445" activeTab="1" xr2:uid="{5FA0205A-B168-4B72-B032-412A2FEFE68C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -877,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518A2270-0DC8-48E9-A2B7-63EAACB935D9}">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -972,6 +972,12 @@
       <c r="J10" s="1">
         <f>+J4/I10</f>
         <v>36.052083333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <f>+J7-J8</f>
+        <v>-3900.8</v>
       </c>
     </row>
   </sheetData>
@@ -983,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1013F871-656C-4C01-A743-27A1EE33544A}">
   <dimension ref="A1:CY81"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="V9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AA27" sqref="AA27"/>
@@ -1298,51 +1304,51 @@
         <v>25</v>
       </c>
       <c r="C8" s="4">
-        <f>+C6-C7</f>
+        <f t="shared" ref="C8:N8" si="4">+C6-C7</f>
         <v>926.60000000000014</v>
       </c>
       <c r="D8" s="4">
-        <f>+D6-D7</f>
+        <f t="shared" si="4"/>
         <v>1004.2000000000003</v>
       </c>
       <c r="E8" s="4">
-        <f>+E6-E7</f>
+        <f t="shared" si="4"/>
         <v>1060</v>
       </c>
       <c r="F8" s="4">
-        <f>+F6-F7</f>
+        <f t="shared" si="4"/>
         <v>1037.5</v>
       </c>
       <c r="G8" s="4">
-        <f>+G6-G7</f>
+        <f t="shared" si="4"/>
         <v>943.40000000000009</v>
       </c>
       <c r="H8" s="4">
-        <f>+H6-H7</f>
+        <f t="shared" si="4"/>
         <v>991.70000000000027</v>
       </c>
       <c r="I8" s="4">
-        <f>+I6-I7</f>
+        <f t="shared" si="4"/>
         <v>968.5</v>
       </c>
       <c r="J8" s="4">
-        <f>+J6-J7</f>
+        <f t="shared" si="4"/>
         <v>1100.4000000000001</v>
       </c>
       <c r="K8" s="4">
-        <f>+K6-K7</f>
+        <f t="shared" si="4"/>
         <v>1089</v>
       </c>
       <c r="L8" s="4">
-        <f>+L6-L7</f>
+        <f t="shared" si="4"/>
         <v>1213.0999999999999</v>
       </c>
       <c r="M8" s="4">
-        <f>+M6-M7</f>
+        <f t="shared" si="4"/>
         <v>1356.9</v>
       </c>
       <c r="N8" s="4">
-        <f>+N6-N7</f>
+        <f t="shared" si="4"/>
         <v>1480.6999999999998</v>
       </c>
       <c r="O8" s="4">
@@ -1350,15 +1356,15 @@
         <v>1377</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" ref="P8:R8" si="4">+P6*0.34</f>
+        <f t="shared" ref="P8:R8" si="5">+P6*0.34</f>
         <v>1652.4</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1817.64</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1999.4040000000002</v>
       </c>
       <c r="U8" s="4">
@@ -1382,15 +1388,15 @@
         <v>7400.2004999999999</v>
       </c>
       <c r="Z8" s="4">
-        <f t="shared" ref="Z8:AB8" si="5">+Z6*0.35</f>
+        <f t="shared" ref="Z8:AB8" si="6">+Z6*0.35</f>
         <v>7770.2105249999995</v>
       </c>
       <c r="AA8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8158.7210512500005</v>
       </c>
       <c r="AB8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8566.6571038125003</v>
       </c>
     </row>
@@ -1463,19 +1469,19 @@
         <v>40</v>
       </c>
       <c r="Y9" s="8">
-        <f t="shared" ref="Y9:AB9" si="6">+SUM(P9:S9)</f>
+        <f t="shared" ref="Y9:AB9" si="7">+SUM(P9:S9)</f>
         <v>30</v>
       </c>
       <c r="Z9" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="AA9" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.5</v>
       </c>
       <c r="AB9" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56.2</v>
       </c>
     </row>
@@ -1524,15 +1530,15 @@
         <v>486</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" ref="P10:R10" si="7">+P6*0.12</f>
+        <f t="shared" ref="P10:R10" si="8">+P6*0.12</f>
         <v>583.19999999999993</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>641.52</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>705.67200000000003</v>
       </c>
       <c r="U10" s="8">
@@ -1556,15 +1562,15 @@
         <v>2440.5559199999998</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" ref="Z10:AB10" si="8">+Y10*1.01</f>
+        <f t="shared" ref="Z10:AB10" si="9">+Y10*1.01</f>
         <v>2464.9614791999998</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2489.611093992</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2514.5072049319201</v>
       </c>
     </row>
@@ -1573,67 +1579,67 @@
         <v>28</v>
       </c>
       <c r="C11" s="1">
-        <f>+C10+C9</f>
+        <f t="shared" ref="C11:O11" si="10">+C10+C9</f>
         <v>336.8</v>
       </c>
       <c r="D11" s="1">
-        <f>+D10+D9</f>
+        <f t="shared" si="10"/>
         <v>355.4</v>
       </c>
       <c r="E11" s="1">
-        <f>+E10+E9</f>
+        <f t="shared" si="10"/>
         <v>378.9</v>
       </c>
       <c r="F11" s="1">
-        <f>+F10+F9</f>
+        <f t="shared" si="10"/>
         <v>371.3</v>
       </c>
       <c r="G11" s="1">
-        <f>+G10+G9</f>
+        <f t="shared" si="10"/>
         <v>351.7</v>
       </c>
       <c r="H11" s="1">
-        <f>+H10+H9</f>
+        <f t="shared" si="10"/>
         <v>371.8</v>
       </c>
       <c r="I11" s="1">
-        <f>+I10+I9</f>
+        <f t="shared" si="10"/>
         <v>390.6</v>
       </c>
       <c r="J11" s="1">
-        <f>+J10+J9</f>
+        <f t="shared" si="10"/>
         <v>410.40000000000003</v>
       </c>
       <c r="K11" s="1">
-        <f>+K10+K9</f>
+        <f t="shared" si="10"/>
         <v>404.2</v>
       </c>
       <c r="L11" s="1">
-        <f>+L10+L9</f>
+        <f t="shared" si="10"/>
         <v>514.29999999999995</v>
       </c>
       <c r="M11" s="1">
-        <f>+M10+M9</f>
+        <f t="shared" si="10"/>
         <v>537.4</v>
       </c>
       <c r="N11" s="1">
-        <f>+N10+N9</f>
+        <f t="shared" si="10"/>
         <v>527</v>
       </c>
       <c r="O11" s="1">
-        <f>+O10+O9</f>
+        <f t="shared" si="10"/>
         <v>496</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" ref="P11:R11" si="9">+P10+P9</f>
+        <f t="shared" ref="P11:R11" si="11">+P10+P9</f>
         <v>593.19999999999993</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>651.52</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>715.67200000000003</v>
       </c>
       <c r="U11" s="1">
@@ -1653,19 +1659,19 @@
         <v>2456.3919999999998</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" ref="Y11:AB11" si="10">+Y10+Y9</f>
+        <f t="shared" ref="Y11:AB11" si="12">+Y10+Y9</f>
         <v>2470.5559199999998</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2484.9614791999998</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2521.111093992</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2570.7072049319199</v>
       </c>
     </row>
@@ -1674,67 +1680,67 @@
         <v>29</v>
       </c>
       <c r="C12" s="1">
-        <f>+C8-C11</f>
+        <f t="shared" ref="C12:O12" si="13">+C8-C11</f>
         <v>589.80000000000018</v>
       </c>
       <c r="D12" s="1">
-        <f>+D8-D11</f>
+        <f t="shared" si="13"/>
         <v>648.8000000000003</v>
       </c>
       <c r="E12" s="1">
-        <f>+E8-E11</f>
+        <f t="shared" si="13"/>
         <v>681.1</v>
       </c>
       <c r="F12" s="1">
-        <f>+F8-F11</f>
+        <f t="shared" si="13"/>
         <v>666.2</v>
       </c>
       <c r="G12" s="1">
-        <f>+G8-G11</f>
+        <f t="shared" si="13"/>
         <v>591.70000000000005</v>
       </c>
       <c r="H12" s="1">
-        <f>+H8-H11</f>
+        <f t="shared" si="13"/>
         <v>619.90000000000032</v>
       </c>
       <c r="I12" s="1">
-        <f>+I8-I11</f>
+        <f t="shared" si="13"/>
         <v>577.9</v>
       </c>
       <c r="J12" s="1">
-        <f>+J8-J11</f>
+        <f t="shared" si="13"/>
         <v>690</v>
       </c>
       <c r="K12" s="1">
-        <f>+K8-K11</f>
+        <f t="shared" si="13"/>
         <v>684.8</v>
       </c>
       <c r="L12" s="1">
-        <f>+L8-L11</f>
+        <f t="shared" si="13"/>
         <v>698.8</v>
       </c>
       <c r="M12" s="1">
-        <f>+M8-M11</f>
+        <f t="shared" si="13"/>
         <v>819.50000000000011</v>
       </c>
       <c r="N12" s="1">
-        <f>+N8-N11</f>
+        <f t="shared" si="13"/>
         <v>953.69999999999982</v>
       </c>
       <c r="O12" s="1">
-        <f>+O8-O11</f>
+        <f t="shared" si="13"/>
         <v>881</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" ref="P12:R12" si="11">+P8-P11</f>
+        <f t="shared" ref="P12:R12" si="14">+P8-P11</f>
         <v>1059.2000000000003</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1166.1200000000001</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1283.7320000000002</v>
       </c>
       <c r="U12" s="1">
@@ -1754,19 +1760,19 @@
         <v>4390.0519999999997</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" ref="Y12:AB12" si="12">+Y8-Y11</f>
+        <f t="shared" ref="Y12:AB12" si="15">+Y8-Y11</f>
         <v>4929.6445800000001</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5285.2490457999993</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5637.6099572580006</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5995.9498988805808</v>
       </c>
     </row>
@@ -1815,15 +1821,15 @@
         <v>54.250000000000007</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" ref="P13:R13" si="13">+AVERAGE(L13:O13)</f>
+        <f t="shared" ref="P13:R13" si="16">+AVERAGE(L13:O13)</f>
         <v>58.287500000000001</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>58.784375000000004</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>59.555468750000003</v>
       </c>
       <c r="U13" s="8">
@@ -1847,15 +1853,15 @@
         <v>233.18611718750003</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" ref="Z13:AB13" si="14">+Y13*1.01</f>
+        <f t="shared" ref="Z13:AB13" si="17">+Y13*1.01</f>
         <v>235.51797835937504</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>237.87315814296878</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>240.25188972439847</v>
       </c>
     </row>
@@ -1864,67 +1870,67 @@
         <v>31</v>
       </c>
       <c r="C14" s="1">
-        <f>+C12-C13</f>
+        <f t="shared" ref="C14:O14" si="18">+C12-C13</f>
         <v>561.70000000000016</v>
       </c>
       <c r="D14" s="1">
-        <f>+D12-D13</f>
+        <f t="shared" si="18"/>
         <v>618.3000000000003</v>
       </c>
       <c r="E14" s="1">
-        <f>+E12-E13</f>
+        <f t="shared" si="18"/>
         <v>648.30000000000007</v>
       </c>
       <c r="F14" s="1">
-        <f>+F12-F13</f>
+        <f t="shared" si="18"/>
         <v>629.1</v>
       </c>
       <c r="G14" s="1">
-        <f>+G12-G13</f>
+        <f t="shared" si="18"/>
         <v>555.80000000000007</v>
       </c>
       <c r="H14" s="1">
-        <f>+H12-H13</f>
+        <f t="shared" si="18"/>
         <v>584.90000000000032</v>
       </c>
       <c r="I14" s="1">
-        <f>+I12-I13</f>
+        <f t="shared" si="18"/>
         <v>544.29999999999995</v>
       </c>
       <c r="J14" s="1">
-        <f>+J12-J13</f>
+        <f t="shared" si="18"/>
         <v>655</v>
       </c>
       <c r="K14" s="1">
-        <f>+K12-K13</f>
+        <f t="shared" si="18"/>
         <v>646.69999999999993</v>
       </c>
       <c r="L14" s="1">
-        <f>+L12-L13</f>
+        <f t="shared" si="18"/>
         <v>642.5</v>
       </c>
       <c r="M14" s="1">
-        <f>+M12-M13</f>
+        <f t="shared" si="18"/>
         <v>763.80000000000007</v>
       </c>
       <c r="N14" s="1">
-        <f>+N12-N13</f>
+        <f t="shared" si="18"/>
         <v>886.79999999999984</v>
       </c>
       <c r="O14" s="1">
-        <f>+O12-O13</f>
+        <f t="shared" si="18"/>
         <v>826.75</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" ref="P14:R14" si="15">+P12-P13</f>
+        <f t="shared" ref="P14:R14" si="19">+P12-P13</f>
         <v>1000.9125000000003</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1107.3356250000002</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1224.1765312500002</v>
       </c>
       <c r="U14" s="1">
@@ -1944,19 +1950,19 @@
         <v>4159.1746562499993</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" ref="Y14:AB14" si="16">+Y12-Y13</f>
+        <f t="shared" ref="Y14:AB14" si="20">+Y12-Y13</f>
         <v>4696.4584628125003</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5049.7310674406244</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5399.7367991150322</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5755.6980091561827</v>
       </c>
     </row>
@@ -2005,15 +2011,15 @@
         <v>165.35000000000002</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" ref="P15:R15" si="17">+P14*0.2</f>
+        <f t="shared" ref="P15:R15" si="21">+P14*0.2</f>
         <v>200.18250000000006</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>221.46712500000004</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>244.83530625000003</v>
       </c>
       <c r="U15" s="8">
@@ -2037,15 +2043,15 @@
         <v>840.15328056250019</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" ref="Z15:AB15" si="18">+Y15*1.01</f>
+        <f t="shared" ref="Z15:AB15" si="22">+Y15*1.01</f>
         <v>848.55481336812522</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>857.0403615018065</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>865.61076511682461</v>
       </c>
     </row>
@@ -2054,67 +2060,67 @@
         <v>33</v>
       </c>
       <c r="C16" s="4">
-        <f>+C14-C15</f>
+        <f t="shared" ref="C16:O16" si="23">+C14-C15</f>
         <v>427.50000000000017</v>
       </c>
       <c r="D16" s="4">
-        <f>+D14-D15</f>
+        <f t="shared" si="23"/>
         <v>473.8000000000003</v>
       </c>
       <c r="E16" s="4">
-        <f>+E14-E15</f>
+        <f t="shared" si="23"/>
         <v>497.90000000000009</v>
       </c>
       <c r="F16" s="4">
-        <f>+F14-F15</f>
+        <f t="shared" si="23"/>
         <v>507.6</v>
       </c>
       <c r="G16" s="4">
-        <f>+G14-G15</f>
+        <f t="shared" si="23"/>
         <v>438.60000000000008</v>
       </c>
       <c r="H16" s="4">
-        <f>+H14-H15</f>
+        <f t="shared" si="23"/>
         <v>454.3000000000003</v>
       </c>
       <c r="I16" s="4">
-        <f>+I14-I15</f>
+        <f t="shared" si="23"/>
         <v>429.09999999999997</v>
       </c>
       <c r="J16" s="4">
-        <f>+J14-J15</f>
+        <f t="shared" si="23"/>
         <v>508.7</v>
       </c>
       <c r="K16" s="4">
-        <f>+K14-K15</f>
+        <f t="shared" si="23"/>
         <v>535.99999999999989</v>
       </c>
       <c r="L16" s="4">
-        <f>+L14-L15</f>
+        <f t="shared" si="23"/>
         <v>507.4</v>
       </c>
       <c r="M16" s="4">
-        <f>+M14-M15</f>
+        <f t="shared" si="23"/>
         <v>597.70000000000005</v>
       </c>
       <c r="N16" s="4">
-        <f>+N14-N15</f>
+        <f t="shared" si="23"/>
         <v>728.39999999999986</v>
       </c>
       <c r="O16" s="4">
-        <f>+O14-O15</f>
+        <f t="shared" si="23"/>
         <v>661.4</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16:R16" si="19">+P14-P15</f>
+        <f t="shared" ref="P16:R16" si="24">+P14-P15</f>
         <v>800.73000000000025</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>885.86850000000015</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>979.34122500000012</v>
       </c>
       <c r="U16" s="4">
@@ -2134,19 +2140,19 @@
         <v>3327.3397249999989</v>
       </c>
       <c r="Y16" s="4">
-        <f t="shared" ref="Y16:AB16" si="20">+Y14-Y15</f>
+        <f t="shared" ref="Y16:AB16" si="25">+Y14-Y15</f>
         <v>3856.3051822500001</v>
       </c>
       <c r="Z16" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>4201.1762540724994</v>
       </c>
       <c r="AA16" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>4542.6964376132255</v>
       </c>
       <c r="AB16" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>4890.0872440393578</v>
       </c>
       <c r="AC16" s="4">
@@ -2154,35 +2160,35 @@
         <v>4987.8889889201446</v>
       </c>
       <c r="AD16" s="4">
-        <f t="shared" ref="AD16:AK16" si="21">+AC16*1.02</f>
+        <f t="shared" ref="AD16:AK16" si="26">+AC16*1.02</f>
         <v>5087.6467686985479</v>
       </c>
       <c r="AE16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5189.3997040725189</v>
       </c>
       <c r="AF16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5293.187698153969</v>
       </c>
       <c r="AG16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5399.051452117048</v>
       </c>
       <c r="AH16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5507.0324811593891</v>
       </c>
       <c r="AI16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5617.1731307825767</v>
       </c>
       <c r="AJ16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5729.516593398228</v>
       </c>
       <c r="AK16" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5844.1069252661928</v>
       </c>
       <c r="AL16" s="4">
@@ -2190,251 +2196,251 @@
         <v>5785.6658560135311</v>
       </c>
       <c r="AM16" s="4">
-        <f t="shared" ref="AM16:CV16" si="22">+AL16*(1+$AA22)</f>
+        <f t="shared" ref="AM16:CV16" si="27">+AL16*(1+$AA22)</f>
         <v>5727.8091974533954</v>
       </c>
       <c r="AN16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5670.5311054788617</v>
       </c>
       <c r="AO16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5613.8257944240731</v>
       </c>
       <c r="AP16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5557.6875364798325</v>
       </c>
       <c r="AQ16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5502.1106611150344</v>
       </c>
       <c r="AR16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5447.0895545038838</v>
       </c>
       <c r="AS16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5392.6186589588451</v>
       </c>
       <c r="AT16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5338.6924723692564</v>
       </c>
       <c r="AU16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5285.3055476455638</v>
       </c>
       <c r="AV16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5232.4524921691082</v>
       </c>
       <c r="AW16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5180.1279672474175</v>
       </c>
       <c r="AX16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5128.3266875749432</v>
       </c>
       <c r="AY16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5077.043420699194</v>
       </c>
       <c r="AZ16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5026.2729864922021</v>
       </c>
       <c r="BA16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4976.0102566272799</v>
       </c>
       <c r="BB16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4926.2501540610074</v>
       </c>
       <c r="BC16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4876.9876525203972</v>
       </c>
       <c r="BD16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4828.2177759951928</v>
       </c>
       <c r="BE16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4779.9355982352408</v>
       </c>
       <c r="BF16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4732.1362422528882</v>
       </c>
       <c r="BG16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4684.8148798303591</v>
       </c>
       <c r="BH16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4637.9667310320556</v>
       </c>
       <c r="BI16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4591.5870637217349</v>
       </c>
       <c r="BJ16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4545.6711930845177</v>
       </c>
       <c r="BK16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4500.2144811536728</v>
       </c>
       <c r="BL16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4455.212336342136</v>
       </c>
       <c r="BM16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4410.6602129787143</v>
       </c>
       <c r="BN16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4366.5536108489268</v>
       </c>
       <c r="BO16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4322.8880747404373</v>
       </c>
       <c r="BP16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4279.6591939930331</v>
       </c>
       <c r="BQ16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4236.8626020531028</v>
       </c>
       <c r="BR16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4194.4939760325715</v>
       </c>
       <c r="BS16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4152.5490362722458</v>
       </c>
       <c r="BT16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4111.0235459095229</v>
       </c>
       <c r="BU16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4069.9133104504276</v>
       </c>
       <c r="BV16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4029.2141773459234</v>
       </c>
       <c r="BW16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3988.9220355724642</v>
       </c>
       <c r="BX16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3949.0328152167394</v>
       </c>
       <c r="BY16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3909.542487064572</v>
       </c>
       <c r="BZ16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3870.4470621939263</v>
       </c>
       <c r="CA16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3831.7425915719868</v>
       </c>
       <c r="CB16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3793.4251656562669</v>
       </c>
       <c r="CC16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3755.4909139997044</v>
       </c>
       <c r="CD16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3717.9360048597073</v>
       </c>
       <c r="CE16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3680.7566448111102</v>
       </c>
       <c r="CF16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3643.949078362999</v>
       </c>
       <c r="CG16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3607.5095875793691</v>
       </c>
       <c r="CH16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3571.4344917035755</v>
       </c>
       <c r="CI16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3535.7201467865398</v>
       </c>
       <c r="CJ16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3500.3629453186745</v>
       </c>
       <c r="CK16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3465.3593158654876</v>
       </c>
       <c r="CL16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3430.7057227068326</v>
       </c>
       <c r="CM16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3396.3986654797641</v>
       </c>
       <c r="CN16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3362.4346788249663</v>
       </c>
       <c r="CO16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3328.8103320367168</v>
       </c>
       <c r="CP16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3295.5222287163497</v>
       </c>
       <c r="CQ16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3262.5670064291862</v>
       </c>
       <c r="CR16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3229.9413363648941</v>
       </c>
       <c r="CS16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3197.6419230012452</v>
       </c>
       <c r="CT16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3165.6655037712326</v>
       </c>
       <c r="CU16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3134.0088487335202</v>
       </c>
       <c r="CV16" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3102.6687602461848</v>
       </c>
       <c r="CW16" s="4"/>
@@ -2446,67 +2452,67 @@
         <v>34</v>
       </c>
       <c r="C17" s="5">
-        <f>+C16/C18</f>
+        <f t="shared" ref="C17:O17" si="28">+C16/C18</f>
         <v>0.34531502423263344</v>
       </c>
       <c r="D17" s="5">
-        <f>+D16/D18</f>
+        <f t="shared" si="28"/>
         <v>0.38271405492730232</v>
       </c>
       <c r="E17" s="5">
-        <f>+E16/E18</f>
+        <f t="shared" si="28"/>
         <v>0.40218093699515356</v>
       </c>
       <c r="F17" s="5">
-        <f>+F16/F18</f>
+        <f t="shared" si="28"/>
         <v>0.40935483870967743</v>
       </c>
       <c r="G17" s="5">
-        <f>+G16/G18</f>
+        <f t="shared" si="28"/>
         <v>0.35370967741935488</v>
       </c>
       <c r="H17" s="5">
-        <f>+H16/H18</f>
+        <f t="shared" si="28"/>
         <v>0.38179678964618896</v>
       </c>
       <c r="I17" s="5">
-        <f>+I16/I18</f>
+        <f t="shared" si="28"/>
         <v>0.34490796559762077</v>
       </c>
       <c r="J17" s="5">
-        <f>+J16/J18</f>
+        <f t="shared" si="28"/>
         <v>0.41024193548387095</v>
       </c>
       <c r="K17" s="5">
-        <f>+K16/K18</f>
+        <f t="shared" si="28"/>
         <v>0.4267515923566878</v>
       </c>
       <c r="L17" s="5">
-        <f>+L16/L18</f>
+        <f t="shared" si="28"/>
         <v>0.42202445313149795</v>
       </c>
       <c r="M17" s="5">
-        <f>+M16/M18</f>
+        <f t="shared" si="28"/>
         <v>0.47230343737653108</v>
       </c>
       <c r="N17" s="5">
-        <f>+N16/N18</f>
+        <f t="shared" si="28"/>
         <v>0.57440264963330956</v>
       </c>
       <c r="O17" s="5">
-        <f>+O16/O18</f>
+        <f t="shared" si="28"/>
         <v>0.52156769970822492</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" ref="P17:R17" si="23">+P16/P18</f>
+        <f t="shared" ref="P17:R17" si="29">+P16/P18</f>
         <v>0.63144073811213652</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.69857937071208909</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.77229021764845063</v>
       </c>
       <c r="U17" s="9">
@@ -2526,19 +2532,19 @@
         <v>2.6928939179346059</v>
       </c>
       <c r="Y17" s="9">
-        <f t="shared" ref="Y17:AB17" si="24">+Y16/Y18</f>
+        <f t="shared" ref="Y17:AB17" si="30">+Y16/Y18</f>
         <v>3.1075427553487249</v>
       </c>
       <c r="Z17" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3.3663945624491673</v>
       </c>
       <c r="AA17" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3.6312521483718827</v>
       </c>
       <c r="AB17" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>3.8582091948710864</v>
       </c>
     </row>
@@ -2618,19 +2624,19 @@
         <v>1235.5999999999999</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" ref="Y18:AB18" si="25">+AVERAGE(J18:M18)</f>
+        <f t="shared" ref="Y18:AB18" si="31">+AVERAGE(J18:M18)</f>
         <v>1240.95</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1247.9749999999999</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1251</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1267.4499999999998</v>
       </c>
     </row>
@@ -2643,51 +2649,51 @@
         <v>0.31389952234154278</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" ref="D20:O20" si="26">+D8/D6</f>
+        <f t="shared" ref="D20:O20" si="32">+D8/D6</f>
         <v>0.32013516959959198</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.32168001942218988</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.32029513460113612</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.31721587088096842</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.32473230950587784</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.31049628109771737</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.33069872276483847</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.3344286460092743</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.33606670914480424</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.33596612855303554</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.34292132749716298</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.34</v>
       </c>
       <c r="U20" s="6"/>
@@ -2709,31 +2715,31 @@
         <v>36</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" ref="G21:M21" si="27">+G6/C6-1</f>
+        <f t="shared" ref="G21:M21" si="33">+G6/C6-1</f>
         <v>7.4867034791150644E-3</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-2.6428207090028133E-2</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>-5.3411022092740956E-2</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>2.7259817238824535E-2</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>9.4922663080027059E-2</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.1819967909885718</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.29481918440625821</v>
       </c>
       <c r="N21" s="6">
@@ -2746,47 +2752,47 @@
         <v>32</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" ref="C22:N22" si="28">+C15/C14</f>
+        <f t="shared" ref="C22:M22" si="34">+C15/C14</f>
         <v>0.23891757165746833</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.23370532104156547</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.23199136202375442</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.19313304721030042</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.21086721842389347</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.22328603180030762</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.21164798824177847</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.22335877862595421</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.17117674346683162</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.21027237354085601</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.21746530505367895</v>
       </c>
       <c r="N22" s="6">
@@ -2805,47 +2811,47 @@
         <v>37</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23:N23" si="29">+C12/C8</f>
+        <f t="shared" ref="C23:M23" si="35">+C12/C8</f>
         <v>0.63652061299374063</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.64608643696474821</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.64254716981132076</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.64212048192771087</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.62719949120203522</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.62508823232832522</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.59669592152813622</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.62704471101417658</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.62883379247015603</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.57604484378864063</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.60395018055862637</v>
       </c>
       <c r="N23" s="6">
